--- a/HyperParamsCheck.xlsx
+++ b/HyperParamsCheck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shartjen\Documents\Udacity\Deep RL\Codes\deep-reinforcement-learning-master\MyVersions\Chap2\deep-reinforcement-learning\p2_continuous-control_ddpg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178C19A7-F64F-4363-94B1-C2EB23F67FC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080BCEFF-17D0-4124-886B-EE0F93B34115}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -247,6 +247,15 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,20 +537,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -843,7 +854,7 @@
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>512</v>
       </c>
@@ -867,7 +878,7 @@
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>512</v>
       </c>
@@ -891,7 +902,7 @@
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>256</v>
       </c>
@@ -921,7 +932,7 @@
       </c>
       <c r="J19" s="13"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>128</v>
       </c>
@@ -951,7 +962,7 @@
       </c>
       <c r="J20" s="13"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>256</v>
       </c>
@@ -977,7 +988,7 @@
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>256</v>
       </c>
@@ -1009,7 +1020,7 @@
         <v>26.08</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>256</v>
       </c>
@@ -1037,7 +1048,7 @@
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>27</v>
       </c>
@@ -1051,7 +1062,7 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1064,29 +1075,50 @@
       <c r="D26" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="2">
         <v>25</v>
       </c>
-      <c r="F26" s="2">
+      <c r="G26" s="2">
         <v>50</v>
       </c>
-      <c r="G26" s="2">
+      <c r="H26" s="2">
         <v>75</v>
       </c>
-      <c r="H26" s="2">
+      <c r="I26" s="2">
         <v>100</v>
       </c>
-      <c r="I26" s="2">
+      <c r="J26" s="2">
         <v>125</v>
       </c>
-      <c r="J26" s="2">
+      <c r="K26" s="2">
         <v>150</v>
       </c>
-      <c r="K26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="2">
+        <v>200</v>
+      </c>
+      <c r="M26" s="2">
+        <v>250</v>
+      </c>
+      <c r="N26" s="2">
+        <v>300</v>
+      </c>
+      <c r="O26" s="2">
+        <v>350</v>
+      </c>
+      <c r="P26" s="2">
+        <v>400</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>450</v>
+      </c>
+      <c r="R26" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>0.2</v>
       </c>
@@ -1099,26 +1131,48 @@
       <c r="D27" s="21">
         <v>1E-4</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="23"/>
+      <c r="F27" s="17">
         <v>2.1880000000000002</v>
       </c>
-      <c r="F27" s="17">
+      <c r="G27" s="17">
         <v>4.5449999999999999</v>
       </c>
-      <c r="G27" s="17">
+      <c r="H27" s="17">
         <v>8.4049999999999994</v>
       </c>
-      <c r="H27" s="17">
+      <c r="I27" s="17">
         <v>13.581</v>
       </c>
-      <c r="I27" s="17">
+      <c r="J27" s="17">
         <v>20.899000000000001</v>
       </c>
-      <c r="J27" s="17">
+      <c r="K27" s="17">
         <v>26.08</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="17">
+        <v>30.696000000000002</v>
+      </c>
+      <c r="M27" s="17">
+        <v>29.395</v>
+      </c>
+      <c r="N27" s="17">
+        <v>26.927</v>
+      </c>
+      <c r="O27" s="17">
+        <v>28.498000000000001</v>
+      </c>
+      <c r="P27" s="17">
+        <v>28.399000000000001</v>
+      </c>
+      <c r="Q27" s="17">
+        <v>26.059000000000001</v>
+      </c>
+      <c r="R27" s="17">
+        <v>27.521000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>0.3</v>
       </c>
@@ -1131,26 +1185,27 @@
       <c r="D28" s="7">
         <v>1E-4</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="24"/>
+      <c r="F28" s="15">
         <v>1.1559999999999999</v>
       </c>
-      <c r="F28" s="15">
+      <c r="G28" s="15">
         <v>2.847</v>
       </c>
-      <c r="G28" s="15">
+      <c r="H28" s="15">
         <v>4.0289999999999999</v>
       </c>
-      <c r="H28" s="15">
+      <c r="I28" s="15">
         <v>4.734</v>
       </c>
-      <c r="I28" s="15">
+      <c r="J28" s="15">
         <v>6.1440000000000001</v>
       </c>
-      <c r="J28" s="15">
+      <c r="K28" s="15">
         <v>6.875</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>0.4</v>
       </c>
@@ -1163,26 +1218,27 @@
       <c r="D29" s="7">
         <v>1E-4</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="24"/>
+      <c r="F29" s="15">
         <v>1.7250000000000001</v>
       </c>
-      <c r="F29" s="15">
+      <c r="G29" s="15">
         <v>2.6459999999999999</v>
       </c>
-      <c r="G29" s="15">
+      <c r="H29" s="15">
         <v>3.0459999999999998</v>
       </c>
-      <c r="H29" s="15">
+      <c r="I29" s="15">
         <v>3.2250000000000001</v>
       </c>
-      <c r="I29" s="15">
+      <c r="J29" s="15">
         <v>3.6549999999999998</v>
       </c>
-      <c r="J29" s="15">
+      <c r="K29" s="15">
         <v>3.84</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>0.2</v>
       </c>
@@ -1195,26 +1251,27 @@
       <c r="D30" s="7">
         <v>1E-4</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="24"/>
+      <c r="F30" s="15">
         <v>1.55</v>
       </c>
-      <c r="F30" s="15">
+      <c r="G30" s="15">
         <v>2.6640000000000001</v>
       </c>
-      <c r="G30" s="15">
+      <c r="H30" s="15">
         <v>3.1360000000000001</v>
       </c>
-      <c r="H30" s="15">
+      <c r="I30" s="15">
         <v>3.5059999999999998</v>
       </c>
-      <c r="I30" s="15">
+      <c r="J30" s="15">
         <v>4.3259999999999996</v>
       </c>
-      <c r="J30" s="15">
+      <c r="K30" s="15">
         <v>4.57</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>0.2</v>
       </c>
@@ -1227,22 +1284,23 @@
       <c r="D31" s="22">
         <v>1E-4</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="25"/>
+      <c r="F31" s="13">
         <v>2.2010000000000001</v>
       </c>
-      <c r="F31" s="13">
+      <c r="G31" s="13">
         <v>4.4279999999999999</v>
       </c>
-      <c r="G31" s="13">
+      <c r="H31" s="13">
         <v>4.8330000000000002</v>
       </c>
-      <c r="H31" s="13">
+      <c r="I31" s="13">
         <v>5.0890000000000004</v>
       </c>
-      <c r="I31" s="13"/>
       <c r="J31" s="13"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="13"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>0.2</v>
       </c>
@@ -1255,20 +1313,21 @@
       <c r="D32" s="7">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="24"/>
+      <c r="F32" s="15">
         <v>0.73099999999999998</v>
       </c>
-      <c r="F32" s="15">
+      <c r="G32" s="15">
         <v>0.96299999999999997</v>
       </c>
-      <c r="G32" s="15">
+      <c r="H32" s="15">
         <v>1.095</v>
       </c>
-      <c r="H32" s="15">
+      <c r="I32" s="15">
         <v>1.1599999999999999</v>
       </c>
-      <c r="I32" s="15"/>
       <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -1283,16 +1342,17 @@
       <c r="D33" s="7">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="24"/>
+      <c r="F33" s="15">
         <v>0.81</v>
       </c>
-      <c r="F33" s="15">
+      <c r="G33" s="15">
         <v>2.2040000000000002</v>
       </c>
-      <c r="G33" s="15">
+      <c r="H33" s="15">
         <v>3.05</v>
       </c>
-      <c r="H33" s="15">
+      <c r="I33" s="15">
         <v>3.226</v>
       </c>
     </row>
@@ -1309,20 +1369,21 @@
       <c r="D34" s="22">
         <v>1E-4</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="25"/>
+      <c r="F34" s="13">
         <v>1.988</v>
       </c>
-      <c r="F34" s="13">
+      <c r="G34" s="13">
         <v>3.4220000000000002</v>
       </c>
-      <c r="G34" s="13">
+      <c r="H34" s="13">
         <v>4.3499999999999996</v>
       </c>
-      <c r="H34" s="13">
+      <c r="I34" s="13">
         <v>5.234</v>
       </c>
-      <c r="I34" s="12"/>
       <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1337,16 +1398,17 @@
       <c r="D35" s="7">
         <v>1E-4</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="24"/>
+      <c r="F35" s="15">
         <v>1.998</v>
       </c>
-      <c r="F35" s="15">
+      <c r="G35" s="15">
         <v>4.1859999999999999</v>
       </c>
-      <c r="G35" s="15">
+      <c r="H35" s="15">
         <v>5.7869999999999999</v>
       </c>
-      <c r="H35" s="15">
+      <c r="I35" s="15">
         <v>6.952</v>
       </c>
     </row>
@@ -1363,23 +1425,23 @@
       <c r="D36" s="21">
         <v>1E-4</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="17">
         <v>2.1880000000000002</v>
       </c>
-      <c r="F36" s="17">
+      <c r="G36" s="17">
         <v>4.5449999999999999</v>
       </c>
-      <c r="G36" s="17">
+      <c r="H36" s="17">
         <v>8.4049999999999994</v>
       </c>
-      <c r="H36" s="17">
+      <c r="I36" s="17">
         <v>13.581</v>
       </c>
-      <c r="I36" s="18"/>
       <c r="J36" s="18"/>
-      <c r="K36" t="s">
-        <v>29</v>
-      </c>
+      <c r="K36" s="18"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
@@ -1394,23 +1456,23 @@
       <c r="D37" s="21">
         <v>1E-4</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="17">
         <v>2.1829999999999998</v>
       </c>
-      <c r="F37" s="17">
+      <c r="G37" s="17">
         <v>4.2960000000000003</v>
       </c>
-      <c r="G37" s="17">
+      <c r="H37" s="17">
         <v>5.9610000000000003</v>
       </c>
-      <c r="H37" s="18">
+      <c r="I37" s="18">
         <v>8.9559999999999995</v>
       </c>
-      <c r="I37" s="18"/>
       <c r="J37" s="18"/>
-      <c r="K37" t="s">
-        <v>30</v>
-      </c>
+      <c r="K37" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
